--- a/data_capture/excels/LWSA3_SA_dados.xlsx
+++ b/data_capture/excels/LWSA3_SA_dados.xlsx
@@ -943,7 +943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1312"/>
+  <dimension ref="A1:H1314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -35058,6 +35058,58 @@
         <v>0</v>
       </c>
       <c r="H1312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:8">
+      <c r="A1313" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1313">
+        <v>3.700000047683716</v>
+      </c>
+      <c r="C1313">
+        <v>3.799999952316284</v>
+      </c>
+      <c r="D1313">
+        <v>3.650000095367432</v>
+      </c>
+      <c r="E1313">
+        <v>3.690000057220459</v>
+      </c>
+      <c r="F1313">
+        <v>5329700</v>
+      </c>
+      <c r="G1313">
+        <v>0</v>
+      </c>
+      <c r="H1313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:8">
+      <c r="A1314" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1314">
+        <v>3.710000038146973</v>
+      </c>
+      <c r="C1314">
+        <v>3.799999952316284</v>
+      </c>
+      <c r="D1314">
+        <v>3.539999961853027</v>
+      </c>
+      <c r="E1314">
+        <v>3.789999961853027</v>
+      </c>
+      <c r="F1314">
+        <v>5673600</v>
+      </c>
+      <c r="G1314">
+        <v>0</v>
+      </c>
+      <c r="H1314">
         <v>0</v>
       </c>
     </row>
@@ -35111,31 +35163,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C2">
-        <v>10.06010244381956</v>
+        <v>10.05042216598116</v>
       </c>
       <c r="D2">
-        <v>6.851100229380892</v>
+        <v>6.840161210473185</v>
       </c>
       <c r="E2">
         <v>2.690000057220459</v>
       </c>
       <c r="F2">
-        <v>7.257260292813612</v>
+        <v>7.255963956739855</v>
       </c>
       <c r="G2">
         <v>2.529999971389771</v>
       </c>
       <c r="H2">
-        <v>5.050773159924252</v>
+        <v>5.018067004110426</v>
       </c>
       <c r="I2">
-        <v>13.12642074410845</v>
+        <v>13.12492548576382</v>
       </c>
       <c r="J2">
-        <v>8.0756475841842</v>
+        <v>8.106858481653397</v>
       </c>
       <c r="K2">
         <v>32.72949068692964</v>
@@ -35146,31 +35198,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C3">
-        <v>10.35090346573137</v>
+        <v>10.340924937912</v>
       </c>
       <c r="D3">
-        <v>7.037858727571287</v>
+        <v>7.035037667033268</v>
       </c>
       <c r="E3">
         <v>2.779999971389771</v>
       </c>
       <c r="F3">
-        <v>7.456489692136885</v>
+        <v>7.455186258012425</v>
       </c>
       <c r="G3">
         <v>2.660000085830688</v>
       </c>
       <c r="H3">
-        <v>5.191692649672534</v>
+        <v>5.170270926952926</v>
       </c>
       <c r="I3">
-        <v>13.57314010777438</v>
+        <v>13.5633971644596</v>
       </c>
       <c r="J3">
-        <v>8.381447458101848</v>
+        <v>8.393126237506674</v>
       </c>
       <c r="K3">
         <v>34.16183437255822</v>
@@ -35181,31 +35233,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C4">
-        <v>9.758967827107769</v>
+        <v>9.749578691085684</v>
       </c>
       <c r="D4">
-        <v>6.664341552220153</v>
+        <v>6.664341552137424</v>
       </c>
       <c r="E4">
         <v>2.609999895095825</v>
       </c>
       <c r="F4">
-        <v>7.033026739608867</v>
+        <v>7.031777750202903</v>
       </c>
       <c r="G4">
         <v>2.363025014253308</v>
       </c>
       <c r="H4">
-        <v>4.888307509601157</v>
+        <v>4.885217777815823</v>
       </c>
       <c r="I4">
-        <v>12.62511935958686</v>
+        <v>12.62224836544406</v>
       </c>
       <c r="J4">
-        <v>7.736811849985708</v>
+        <v>7.737030587628235</v>
       </c>
       <c r="K4">
         <v>31.37510033647794</v>
@@ -35216,31 +35268,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C5">
-        <v>10.0420516835743</v>
+        <v>10.03245221415459</v>
       </c>
       <c r="D5">
-        <v>6.859648704528809</v>
+        <v>6.851099967956543</v>
       </c>
       <c r="E5">
         <v>4.374088287353516</v>
       </c>
       <c r="F5">
-        <v>7.23780260357197</v>
+        <v>7.236462132813269</v>
       </c>
       <c r="G5">
         <v>2.479717493057251</v>
       </c>
       <c r="H5">
-        <v>5.022805690765381</v>
+        <v>4.993341445922852</v>
       </c>
       <c r="I5">
-        <v>13.14441204071045</v>
+        <v>13.13466739654541</v>
       </c>
       <c r="J5">
-        <v>8.121606349945068</v>
+        <v>8.141325950622559</v>
       </c>
       <c r="K5">
         <v>34.0936279296875</v>
@@ -35251,31 +35303,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C6">
-        <v>8926553.470633104</v>
+        <v>8921336.557501905</v>
       </c>
       <c r="D6">
-        <v>7467600</v>
+        <v>7466100</v>
       </c>
       <c r="E6">
         <v>5557300</v>
       </c>
       <c r="F6">
-        <v>6076459.680853602</v>
+        <v>6073300.216243212</v>
       </c>
       <c r="G6">
         <v>806000</v>
       </c>
       <c r="H6">
-        <v>5153850</v>
+        <v>5162000</v>
       </c>
       <c r="I6">
-        <v>10981200</v>
+        <v>10969300</v>
       </c>
       <c r="J6">
-        <v>5827350</v>
+        <v>5807300</v>
       </c>
       <c r="K6">
         <v>86956800</v>
@@ -35286,10 +35338,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C7">
-        <v>0.0001188749046529367</v>
+        <v>0.0001186938309215537</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -35298,7 +35350,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.002602480543002314</v>
+        <v>0.002600500324005452</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -35321,10 +35373,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="C8">
-        <v>0.003051106025934401</v>
+        <v>0.003046458492003047</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -35333,7 +35385,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1104736353332215</v>
+        <v>0.1103894649321763</v>
       </c>
       <c r="G8">
         <v>0</v>
